--- a/omc_basic_gst_config/data/ids_map.xlsx
+++ b/omc_basic_gst_config/data/ids_map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\personal\OneDrive\demo_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\git\odoo\basic_addons\omc_basic_gst_config\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="612">
   <si>
     <t>id</t>
   </si>
@@ -1671,9 +1671,6 @@
   </si>
   <si>
     <t>SR - Standard Rated Supplies (6%)</t>
-  </si>
-  <si>
-    <t>_account_tax_imgds</t>
   </si>
   <si>
     <t>_account_tax_zrl</t>
@@ -2186,8 +2183,8 @@
   <dimension ref="A1:D294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A294" sqref="A294:XFD294"/>
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4970,10 +4967,10 @@
         <v>501</v>
       </c>
       <c r="C252" t="s">
-        <v>548</v>
+        <v>500</v>
       </c>
       <c r="D252" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4984,10 +4981,10 @@
         <v>503</v>
       </c>
       <c r="C253" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D253" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4998,10 +4995,10 @@
         <v>505</v>
       </c>
       <c r="C254" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D254" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5012,10 +5009,10 @@
         <v>507</v>
       </c>
       <c r="C255" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D255" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5026,10 +5023,10 @@
         <v>509</v>
       </c>
       <c r="C256" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D256" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5040,10 +5037,10 @@
         <v>511</v>
       </c>
       <c r="C257" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D257" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5054,10 +5051,10 @@
         <v>513</v>
       </c>
       <c r="C258" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D258" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5068,10 +5065,10 @@
         <v>515</v>
       </c>
       <c r="C259" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D259" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5082,10 +5079,10 @@
         <v>517</v>
       </c>
       <c r="C260" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D260" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5096,10 +5093,10 @@
         <v>519</v>
       </c>
       <c r="C261" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D261" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,10 +5107,10 @@
         <v>521</v>
       </c>
       <c r="C262" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D262" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5124,10 +5121,10 @@
         <v>523</v>
       </c>
       <c r="C263" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D263" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5138,10 +5135,10 @@
         <v>525</v>
       </c>
       <c r="C264" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D264" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5152,10 +5149,10 @@
         <v>527</v>
       </c>
       <c r="C265" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D265" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5166,10 +5163,10 @@
         <v>529</v>
       </c>
       <c r="C266" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D266" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5180,10 +5177,10 @@
         <v>531</v>
       </c>
       <c r="C267" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D267" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5194,10 +5191,10 @@
         <v>533</v>
       </c>
       <c r="C268" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D268" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5208,10 +5205,10 @@
         <v>535</v>
       </c>
       <c r="C269" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D269" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5222,10 +5219,10 @@
         <v>537</v>
       </c>
       <c r="C270" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D270" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5236,10 +5233,10 @@
         <v>539</v>
       </c>
       <c r="C271" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D271" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5250,10 +5247,10 @@
         <v>541</v>
       </c>
       <c r="C272" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D272" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5264,10 +5261,10 @@
         <v>543</v>
       </c>
       <c r="C273" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D273" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5278,10 +5275,10 @@
         <v>545</v>
       </c>
       <c r="C274" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D274" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5292,276 +5289,276 @@
         <v>547</v>
       </c>
       <c r="C275" t="s">
+        <v>569</v>
+      </c>
+      <c r="D275" t="s">
         <v>570</v>
-      </c>
-      <c r="D275" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B276" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C276" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D276" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>573</v>
+      </c>
+      <c r="B277" t="s">
+        <v>576</v>
+      </c>
+      <c r="C277" t="s">
+        <v>573</v>
+      </c>
+      <c r="D277" t="s">
         <v>574</v>
-      </c>
-      <c r="B277" t="s">
-        <v>577</v>
-      </c>
-      <c r="C277" t="s">
-        <v>574</v>
-      </c>
-      <c r="D277" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>577</v>
+      </c>
+      <c r="B278" t="s">
         <v>578</v>
       </c>
-      <c r="B278" t="s">
-        <v>579</v>
-      </c>
       <c r="C278" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D278" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>579</v>
+      </c>
+      <c r="B279" t="s">
         <v>580</v>
       </c>
-      <c r="B279" t="s">
-        <v>581</v>
-      </c>
       <c r="C279" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D279" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>581</v>
+      </c>
+      <c r="B280" t="s">
         <v>582</v>
       </c>
-      <c r="B280" t="s">
-        <v>583</v>
-      </c>
       <c r="C280" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D280" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>583</v>
+      </c>
+      <c r="B281" t="s">
         <v>584</v>
       </c>
-      <c r="B281" t="s">
-        <v>585</v>
-      </c>
       <c r="C281" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D281" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>585</v>
+      </c>
+      <c r="B282" t="s">
         <v>586</v>
       </c>
-      <c r="B282" t="s">
-        <v>587</v>
-      </c>
       <c r="C282" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D282" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>587</v>
+      </c>
+      <c r="B283" t="s">
         <v>588</v>
       </c>
-      <c r="B283" t="s">
-        <v>589</v>
-      </c>
       <c r="C283" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D283" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>589</v>
+      </c>
+      <c r="B284" t="s">
         <v>590</v>
       </c>
-      <c r="B284" t="s">
-        <v>591</v>
-      </c>
       <c r="C284" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D284" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>591</v>
+      </c>
+      <c r="B285" t="s">
         <v>592</v>
       </c>
-      <c r="B285" t="s">
-        <v>593</v>
-      </c>
       <c r="C285" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D285" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>593</v>
+      </c>
+      <c r="B286" t="s">
         <v>594</v>
       </c>
-      <c r="B286" t="s">
-        <v>595</v>
-      </c>
       <c r="C286" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D286" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>595</v>
+      </c>
+      <c r="B287" t="s">
         <v>596</v>
       </c>
-      <c r="B287" t="s">
-        <v>597</v>
-      </c>
       <c r="C287" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D287" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>597</v>
+      </c>
+      <c r="B288" t="s">
         <v>598</v>
       </c>
-      <c r="B288" t="s">
-        <v>599</v>
-      </c>
       <c r="C288" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D288" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>599</v>
+      </c>
+      <c r="B289" t="s">
         <v>600</v>
       </c>
-      <c r="B289" t="s">
-        <v>601</v>
-      </c>
       <c r="C289" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D289" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>601</v>
+      </c>
+      <c r="B290" t="s">
         <v>602</v>
       </c>
-      <c r="B290" t="s">
-        <v>603</v>
-      </c>
       <c r="C290" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D290" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>603</v>
+      </c>
+      <c r="B291" t="s">
         <v>604</v>
       </c>
-      <c r="B291" t="s">
-        <v>605</v>
-      </c>
       <c r="C291" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D291" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>605</v>
+      </c>
+      <c r="B292" t="s">
         <v>606</v>
       </c>
-      <c r="B292" t="s">
-        <v>607</v>
-      </c>
       <c r="C292" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D292" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>607</v>
+      </c>
+      <c r="B293" t="s">
         <v>608</v>
       </c>
-      <c r="B293" t="s">
-        <v>609</v>
-      </c>
       <c r="C293" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D293" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>609</v>
+      </c>
+      <c r="B294" t="s">
         <v>610</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" t="s">
+        <v>609</v>
+      </c>
+      <c r="D294" t="s">
         <v>611</v>
-      </c>
-      <c r="C294" t="s">
-        <v>610</v>
-      </c>
-      <c r="D294" t="s">
-        <v>612</v>
       </c>
     </row>
   </sheetData>
